--- a/tools  instruction/软件规划说明.xlsx
+++ b/tools  instruction/软件规划说明.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>串口0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,114 +88,118 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>19_P03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20_P04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART0_TX 115200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART0_RX 115200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_P05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_P06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_P07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPSCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15_P10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_P11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_P12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO(LED4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO(TP1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO(TP2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_P13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11_P14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_P15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_P16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_P17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT1(KEY)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_P20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_P30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>UART1_RX(GPS_IN)9600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19_P03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20_P04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UART0_TX 115200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UART0_RX 115200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_P05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_P06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_P07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPSCK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15_P10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14_P11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_P12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPIO(LED4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPIO(TP1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPIO(TP2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12_P13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11_P14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10_P15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPCS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8_P16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6_P17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT1(KEY)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_P20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5_P30</t>
+    <t>UART1_TX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -305,7 +308,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -380,6 +383,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -415,6 +435,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -593,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -666,16 +703,16 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s">
         <v>41</v>
-      </c>
-      <c r="I19" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
@@ -686,13 +723,13 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
@@ -700,74 +737,77 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
         <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
         <v>39</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/tools  instruction/软件规划说明.xlsx
+++ b/tools  instruction/软件规划说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>串口0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,10 @@
   </si>
   <si>
     <t>UART1_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强上拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:I26"/>
+  <dimension ref="D3:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -695,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>12</v>
       </c>
@@ -715,7 +719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>13</v>
       </c>
@@ -732,7 +736,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>14</v>
       </c>
@@ -746,32 +750,35 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+      <c r="J22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>23</v>
       </c>
@@ -782,7 +789,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>24</v>
       </c>
@@ -796,7 +803,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>25</v>
       </c>

--- a/tools  instruction/软件规划说明.xlsx
+++ b/tools  instruction/软件规划说明.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DD3F8E88-DA9D-4C30-91A4-0465D4AE94C2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,8 +204,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,8 +236,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +260,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -278,7 +292,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -286,17 +300,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -631,11 +650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -700,16 +719,16 @@
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H19" t="s">
@@ -720,10 +739,10 @@
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
@@ -737,10 +756,10 @@
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F21" t="s">
@@ -782,32 +801,32 @@
       <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F26" t="s">
